--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Corrèze/Liste_des_villes_et_villages_fleuris_de_la_Corrèze.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Corrèze/Liste_des_villes_et_villages_fleuris_de_la_Corrèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Corrèze dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Corrèze, en Nouvelle-Aquitaine.
-En 2023, 30 communes du département figurent au palmarès du concours[1], soit trois communes de plus par rapport au palmarès de 2022.
+En 2023, 30 communes du département figurent au palmarès du concours, soit trois communes de plus par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,22 +524,173 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indication car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 30 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 30 communes sont réparties comme suit :
 4 fleurs : aucune commune. 
 3 fleurs : 3 communes.
 2 fleurs : 17 communes.
-1 fleur : 10 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Corrèze labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-3 fleurs
+1 fleur : 10 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Corrèze labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ayen
 Brive-la-Gaillarde
 Ussel
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Affieux
 Allassac
 Beaulieu-sur-Dordogne
@@ -545,7 +708,47 @@
 Saint-Ybard
 Tulle
 Uzerche
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Corrèze</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cosnac
 Liginiac
 Naves
